--- a/Coupon_27 Sept/Sample Data.xlsx
+++ b/Coupon_27 Sept/Sample Data.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -29,12 +29,6 @@
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <sz val="8"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -462,7 +456,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D2" sqref="D2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -473,8 +467,8 @@
     <col width="25.6640625" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
     <col width="30" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
     <col width="19.77734375" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
-    <col width="8.88671875" customWidth="1" style="1" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="1" min="8" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="1" min="7" max="8"/>
+    <col width="8.88671875" customWidth="1" style="1" min="9" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -509,7 +503,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="14.4" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>S1</t>
@@ -531,7 +525,7 @@
         <v>283.3477608870371</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="14.4" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>S2</t>
@@ -553,7 +547,7 @@
         <v>174.128996430456</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="14.4" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>S3</t>
@@ -575,7 +569,7 @@
         <v>128.5569532897593</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="14.4" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>S4</t>
@@ -597,7 +591,7 @@
         <v>192.0122805664358</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="14.4" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>S5</t>
@@ -619,7 +613,7 @@
         <v>220.4232838529774</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="14.4" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>S6</t>
@@ -641,7 +635,7 @@
         <v>343.7928654808633</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="14.4" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>S7</t>
@@ -663,7 +657,7 @@
         <v>218.7313396832236</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="14.4" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>S8</t>
@@ -685,7 +679,7 @@
         <v>275.8397992106704</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="14.4" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>S9</t>
